--- a/AR0134CS/Capstone_AR0134CS_BOM.xlsx
+++ b/AR0134CS/Capstone_AR0134CS_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/AR0134CS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="8_{D9F634DA-45E3-429E-AAAF-3B5973463A8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{770DEAAF-22A8-494D-82D9-B3CD9E0059E0}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{D9F634DA-45E3-429E-AAAF-3B5973463A8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0A36DA94-DA48-475D-889F-20583B13F472}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>Item</t>
   </si>
@@ -267,12 +267,6 @@
     <t>SN74AUC1G08</t>
   </si>
   <si>
-    <t>SC70-5</t>
-  </si>
-  <si>
-    <t>SN74AUC1G08DCKR</t>
-  </si>
-  <si>
     <t>IC, SUPERVISOR, MICROPROCESSOR POWER SUPPLY, 2.93V, ACTIVE LOW RESET, SOT143-4</t>
   </si>
   <si>
@@ -325,6 +319,9 @@
   </si>
   <si>
     <t>AR0134CSS</t>
+  </si>
+  <si>
+    <t>SN74AUC1G08DBVR</t>
   </si>
 </sst>
 </file>
@@ -615,46 +612,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -685,16 +648,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1037,78 +1034,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="44">
         <v>43466</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1135,7 +1132,7 @@
       <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -1153,19 +1150,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="35">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="22">
         <v>0.1</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="21">
         <v>805</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -1184,19 +1181,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="35">
+      <c r="D6" s="21">
         <v>33</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="23">
         <v>0.2</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="19">
         <v>201</v>
       </c>
       <c r="I6" s="10" t="s">
@@ -1215,19 +1212,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="35">
+      <c r="D7" s="21">
         <v>18</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="22">
         <v>0.1</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -1247,19 +1244,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="35">
+      <c r="D8" s="21">
         <v>6</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="22">
         <v>0.1</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="19" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -1278,23 +1275,23 @@
         <v>5</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="35">
+      <c r="D9" s="21">
         <v>1</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
         <v>603</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="16" t="s">
         <v>39</v>
       </c>
       <c r="K9" s="4"/>
@@ -1307,23 +1304,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="35">
+      <c r="D10" s="21">
         <v>1</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="35">
+      <c r="G10" s="19"/>
+      <c r="H10" s="21">
         <v>603</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="16" t="s">
         <v>42</v>
       </c>
       <c r="K10" s="4"/>
@@ -1336,25 +1333,25 @@
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="35">
+      <c r="D11" s="21">
         <v>4</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="21">
         <v>22</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="22">
         <v>0.05</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="19" t="s">
         <v>44</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="16" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="4"/>
@@ -1365,55 +1362,55 @@
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="35">
+      <c r="D12" s="21">
         <v>8</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="22">
         <v>0.05</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="21">
         <v>402</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="26"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:15" ht="30" customHeight="1">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="35">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="21">
         <v>0</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="22">
         <v>0.05</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="21">
         <v>402</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="16" t="s">
         <v>49</v>
       </c>
       <c r="K13" s="4"/>
@@ -1424,50 +1421,50 @@
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="35">
+      <c r="D14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="21">
         <v>560</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="22">
         <v>0.05</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="21">
         <v>402</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="16" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="29.25" customHeight="1">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="35">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="22">
         <v>0.05</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="21">
         <v>603</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -1484,19 +1481,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="35">
+      <c r="D16" s="21">
         <v>3</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="19">
         <v>33</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="22">
         <v>0.05</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="21">
         <v>402</v>
       </c>
       <c r="I16" s="11" t="s">
@@ -1513,19 +1510,19 @@
         <v>13</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="35">
+      <c r="D17" s="21">
         <v>3</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="19">
         <v>0</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="22">
         <v>0.05</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="21">
         <v>402</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -1542,21 +1539,21 @@
         <v>14</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="35">
+      <c r="D18" s="21">
         <v>1</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="31" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1565,21 +1562,21 @@
         <v>15</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="35">
+      <c r="D19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="31" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="24">
         <v>5016</v>
       </c>
     </row>
@@ -1588,20 +1585,20 @@
         <v>16</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="35">
+      <c r="D20" s="21">
         <v>1</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="17" t="s">
         <v>70</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -1613,20 +1610,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="35">
+      <c r="D21" s="21">
         <v>2</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="33" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="17" t="s">
         <v>75</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -1638,24 +1635,24 @@
         <v>18</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="35">
+      <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="31" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>75</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="43.5" customHeight="1">
@@ -1663,24 +1660,24 @@
         <v>19</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="35">
+      <c r="D23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="I23" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="33" t="s">
+      <c r="J23" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="27.75" customHeight="1">
@@ -1688,24 +1685,24 @@
         <v>20</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="35">
+      <c r="D24" s="21">
         <v>1</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="I24" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>89</v>
-      </c>
       <c r="J24" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="43.5" customHeight="1">
@@ -1713,22 +1710,22 @@
         <v>21</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="35">
+      <c r="D25" s="21">
         <v>1</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="J25" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28.5" customHeight="1">
@@ -1736,29 +1733,29 @@
         <v>22</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="35">
+      <c r="D26" s="21">
         <v>1</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="I26" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="33" t="s">
+      <c r="J26" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1">
       <c r="A27" t="str">
-        <f>IF(ISBLANK(D27),"",ROW()-4)</f>
+        <f t="shared" ref="A27:A90" si="0">IF(ISBLANK(D27),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="C27" s="3"/>
@@ -1766,7 +1763,7 @@
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1">
       <c r="A28" t="str">
-        <f>IF(ISBLANK(D28),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C28" s="3"/>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1">
       <c r="A29" t="str">
-        <f>IF(ISBLANK(D29),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C29" s="3"/>
@@ -1782,7 +1779,7 @@
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
       <c r="A30" t="str">
-        <f>IF(ISBLANK(D30),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C30" s="3"/>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1">
       <c r="A31" t="str">
-        <f>IF(ISBLANK(D31),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C31" s="3"/>
@@ -1798,7 +1795,7 @@
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
       <c r="A32" t="str">
-        <f>IF(ISBLANK(D32),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C32" s="3"/>
@@ -1806,7 +1803,7 @@
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" t="str">
-        <f>IF(ISBLANK(D33),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C33" s="3"/>
@@ -1814,7 +1811,7 @@
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" t="str">
-        <f>IF(ISBLANK(D34),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C34" s="3"/>
@@ -1822,7 +1819,7 @@
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" t="str">
-        <f>IF(ISBLANK(D35),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C35" s="3"/>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" t="str">
-        <f>IF(ISBLANK(D36),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C36" s="3"/>
@@ -1838,7 +1835,7 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" t="str">
-        <f>IF(ISBLANK(D37),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C37" s="3"/>
@@ -1846,7 +1843,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" t="str">
-        <f>IF(ISBLANK(D38),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C38" s="3"/>
@@ -1854,7 +1851,7 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" t="str">
-        <f>IF(ISBLANK(D39),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C39" s="3"/>
@@ -1862,7 +1859,7 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" t="str">
-        <f>IF(ISBLANK(D40),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C40" s="3"/>
@@ -1870,7 +1867,7 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" t="str">
-        <f>IF(ISBLANK(D41),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C41" s="3"/>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" t="str">
-        <f>IF(ISBLANK(D42),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C42" s="3"/>
@@ -1886,7 +1883,7 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" t="str">
-        <f>IF(ISBLANK(D43),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C43" s="3"/>
@@ -1894,7 +1891,7 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" t="str">
-        <f>IF(ISBLANK(D44),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C44" s="3"/>
@@ -1902,7 +1899,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" t="str">
-        <f>IF(ISBLANK(D45),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C45" s="3"/>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" t="str">
-        <f>IF(ISBLANK(D46),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C46" s="3"/>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" t="str">
-        <f>IF(ISBLANK(D47),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C47" s="3"/>
@@ -1926,7 +1923,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" t="str">
-        <f>IF(ISBLANK(D48),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C48" s="3"/>
@@ -1934,7 +1931,7 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1">
       <c r="A49" t="str">
-        <f>IF(ISBLANK(D49),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C49" s="3"/>
@@ -1942,7 +1939,7 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" t="str">
-        <f>IF(ISBLANK(D50),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C50" s="3"/>
@@ -1950,7 +1947,7 @@
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1">
       <c r="A51" t="str">
-        <f>IF(ISBLANK(D51),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C51" s="3"/>
@@ -1958,7 +1955,7 @@
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1">
       <c r="A52" t="str">
-        <f>IF(ISBLANK(D52),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C52" s="3"/>
@@ -1966,7 +1963,7 @@
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1">
       <c r="A53" t="str">
-        <f>IF(ISBLANK(D53),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C53" s="3"/>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1">
       <c r="A54" t="str">
-        <f>IF(ISBLANK(D54),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C54" s="3"/>
@@ -1982,7 +1979,7 @@
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1">
       <c r="A55" t="str">
-        <f>IF(ISBLANK(D55),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C55" s="3"/>
@@ -1990,7 +1987,7 @@
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1">
       <c r="A56" t="str">
-        <f>IF(ISBLANK(D56),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C56" s="3"/>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1">
       <c r="A57" t="str">
-        <f>IF(ISBLANK(D57),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C57" s="3"/>
@@ -2006,7 +2003,7 @@
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1">
       <c r="A58" t="str">
-        <f>IF(ISBLANK(D58),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C58" s="3"/>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1">
       <c r="A59" t="str">
-        <f>IF(ISBLANK(D59),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C59" s="3"/>
@@ -2022,7 +2019,7 @@
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1">
       <c r="A60" t="str">
-        <f>IF(ISBLANK(D60),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C60" s="3"/>
@@ -2030,7 +2027,7 @@
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1">
       <c r="A61" t="str">
-        <f>IF(ISBLANK(D61),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C61" s="3"/>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1">
       <c r="A62" t="str">
-        <f>IF(ISBLANK(D62),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C62" s="3"/>
@@ -2046,7 +2043,7 @@
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1">
       <c r="A63" t="str">
-        <f>IF(ISBLANK(D63),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C63" s="3"/>
@@ -2054,7 +2051,7 @@
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1">
       <c r="A64" t="str">
-        <f>IF(ISBLANK(D64),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C64" s="3"/>
@@ -2062,7 +2059,7 @@
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1">
       <c r="A65" t="str">
-        <f>IF(ISBLANK(D65),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C65" s="3"/>
@@ -2070,7 +2067,7 @@
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1">
       <c r="A66" t="str">
-        <f>IF(ISBLANK(D66),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C66" s="3"/>
@@ -2078,7 +2075,7 @@
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1">
       <c r="A67" t="str">
-        <f>IF(ISBLANK(D67),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C67" s="3"/>
@@ -2086,7 +2083,7 @@
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1">
       <c r="A68" t="str">
-        <f>IF(ISBLANK(D68),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C68" s="3"/>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1">
       <c r="A69" t="str">
-        <f>IF(ISBLANK(D69),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C69" s="3"/>
@@ -2102,7 +2099,7 @@
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1">
       <c r="A70" t="str">
-        <f>IF(ISBLANK(D70),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C70" s="3"/>
@@ -2110,7 +2107,7 @@
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1">
       <c r="A71" t="str">
-        <f>IF(ISBLANK(D71),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C71" s="3"/>
@@ -2118,7 +2115,7 @@
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1">
       <c r="A72" t="str">
-        <f>IF(ISBLANK(D72),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C72" s="3"/>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1">
       <c r="A73" t="str">
-        <f>IF(ISBLANK(D73),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C73" s="3"/>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1">
       <c r="A74" t="str">
-        <f>IF(ISBLANK(D74),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C74" s="3"/>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1">
       <c r="A75" t="str">
-        <f>IF(ISBLANK(D75),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C75" s="3"/>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1">
       <c r="A76" t="str">
-        <f>IF(ISBLANK(D76),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C76" s="3"/>
@@ -2158,7 +2155,7 @@
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1">
       <c r="A77" t="str">
-        <f>IF(ISBLANK(D77),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C77" s="3"/>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1">
       <c r="A78" t="str">
-        <f>IF(ISBLANK(D78),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C78" s="3"/>
@@ -2174,7 +2171,7 @@
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1">
       <c r="A79" t="str">
-        <f>IF(ISBLANK(D79),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C79" s="3"/>
@@ -2182,7 +2179,7 @@
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1">
       <c r="A80" t="str">
-        <f>IF(ISBLANK(D80),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C80" s="3"/>
@@ -2190,7 +2187,7 @@
     </row>
     <row r="81" spans="1:4" ht="14.25" customHeight="1">
       <c r="A81" t="str">
-        <f>IF(ISBLANK(D81),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C81" s="3"/>
@@ -2198,7 +2195,7 @@
     </row>
     <row r="82" spans="1:4" ht="14.25" customHeight="1">
       <c r="A82" t="str">
-        <f>IF(ISBLANK(D82),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C82" s="3"/>
@@ -2206,7 +2203,7 @@
     </row>
     <row r="83" spans="1:4" ht="14.25" customHeight="1">
       <c r="A83" t="str">
-        <f>IF(ISBLANK(D83),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C83" s="3"/>
@@ -2214,7 +2211,7 @@
     </row>
     <row r="84" spans="1:4" ht="14.25" customHeight="1">
       <c r="A84" t="str">
-        <f>IF(ISBLANK(D84),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C84" s="3"/>
@@ -2222,7 +2219,7 @@
     </row>
     <row r="85" spans="1:4" ht="14.25" customHeight="1">
       <c r="A85" t="str">
-        <f>IF(ISBLANK(D85),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C85" s="3"/>
@@ -2230,7 +2227,7 @@
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1">
       <c r="A86" t="str">
-        <f>IF(ISBLANK(D86),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C86" s="3"/>
@@ -2238,7 +2235,7 @@
     </row>
     <row r="87" spans="1:4" ht="14.25" customHeight="1">
       <c r="A87" t="str">
-        <f>IF(ISBLANK(D87),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C87" s="3"/>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="88" spans="1:4" ht="14.25" customHeight="1">
       <c r="A88" t="str">
-        <f>IF(ISBLANK(D88),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C88" s="3"/>
@@ -2254,7 +2251,7 @@
     </row>
     <row r="89" spans="1:4" ht="14.25" customHeight="1">
       <c r="A89" t="str">
-        <f>IF(ISBLANK(D89),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C89" s="3"/>
@@ -2262,7 +2259,7 @@
     </row>
     <row r="90" spans="1:4" ht="14.25" customHeight="1">
       <c r="A90" t="str">
-        <f>IF(ISBLANK(D90),"",ROW()-4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C90" s="3"/>
@@ -2270,7 +2267,7 @@
     </row>
     <row r="91" spans="1:4" ht="14.25" customHeight="1">
       <c r="A91" t="str">
-        <f>IF(ISBLANK(D91),"",ROW()-4)</f>
+        <f t="shared" ref="A91:A154" si="1">IF(ISBLANK(D91),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="C91" s="3"/>
@@ -2278,7 +2275,7 @@
     </row>
     <row r="92" spans="1:4" ht="14.25" customHeight="1">
       <c r="A92" t="str">
-        <f>IF(ISBLANK(D92),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C92" s="3"/>
@@ -2286,7 +2283,7 @@
     </row>
     <row r="93" spans="1:4" ht="14.25" customHeight="1">
       <c r="A93" t="str">
-        <f>IF(ISBLANK(D93),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C93" s="3"/>
@@ -2294,7 +2291,7 @@
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1">
       <c r="A94" t="str">
-        <f>IF(ISBLANK(D94),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C94" s="3"/>
@@ -2302,7 +2299,7 @@
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1">
       <c r="A95" t="str">
-        <f>IF(ISBLANK(D95),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C95" s="3"/>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1">
       <c r="A96" t="str">
-        <f>IF(ISBLANK(D96),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C96" s="3"/>
@@ -2318,7 +2315,7 @@
     </row>
     <row r="97" spans="1:4" ht="14.25" customHeight="1">
       <c r="A97" t="str">
-        <f>IF(ISBLANK(D97),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C97" s="3"/>
@@ -2326,7 +2323,7 @@
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1">
       <c r="A98" t="str">
-        <f>IF(ISBLANK(D98),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C98" s="3"/>
@@ -2334,7 +2331,7 @@
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1">
       <c r="A99" t="str">
-        <f>IF(ISBLANK(D99),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C99" s="3"/>
@@ -2342,7 +2339,7 @@
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1">
       <c r="A100" t="str">
-        <f>IF(ISBLANK(D100),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C100" s="3"/>
@@ -2350,7 +2347,7 @@
     </row>
     <row r="101" spans="1:4" ht="14.25" customHeight="1">
       <c r="A101" t="str">
-        <f>IF(ISBLANK(D101),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C101" s="3"/>
@@ -2358,7 +2355,7 @@
     </row>
     <row r="102" spans="1:4" ht="14.25" customHeight="1">
       <c r="A102" t="str">
-        <f>IF(ISBLANK(D102),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C102" s="3"/>
@@ -2366,7 +2363,7 @@
     </row>
     <row r="103" spans="1:4" ht="14.25" customHeight="1">
       <c r="A103" t="str">
-        <f>IF(ISBLANK(D103),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C103" s="3"/>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="104" spans="1:4" ht="14.25" customHeight="1">
       <c r="A104" t="str">
-        <f>IF(ISBLANK(D104),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C104" s="3"/>
@@ -2382,7 +2379,7 @@
     </row>
     <row r="105" spans="1:4" ht="14.25" customHeight="1">
       <c r="A105" t="str">
-        <f>IF(ISBLANK(D105),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C105" s="3"/>
@@ -2390,7 +2387,7 @@
     </row>
     <row r="106" spans="1:4" ht="14.25" customHeight="1">
       <c r="A106" t="str">
-        <f>IF(ISBLANK(D106),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C106" s="3"/>
@@ -2398,7 +2395,7 @@
     </row>
     <row r="107" spans="1:4" ht="14.25" customHeight="1">
       <c r="A107" t="str">
-        <f>IF(ISBLANK(D107),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C107" s="3"/>
@@ -2406,7 +2403,7 @@
     </row>
     <row r="108" spans="1:4" ht="14.25" customHeight="1">
       <c r="A108" t="str">
-        <f>IF(ISBLANK(D108),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C108" s="3"/>
@@ -2414,7 +2411,7 @@
     </row>
     <row r="109" spans="1:4" ht="14.25" customHeight="1">
       <c r="A109" t="str">
-        <f>IF(ISBLANK(D109),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C109" s="3"/>
@@ -2422,7 +2419,7 @@
     </row>
     <row r="110" spans="1:4" ht="14.25" customHeight="1">
       <c r="A110" t="str">
-        <f>IF(ISBLANK(D110),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C110" s="3"/>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="111" spans="1:4" ht="14.25" customHeight="1">
       <c r="A111" t="str">
-        <f>IF(ISBLANK(D111),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C111" s="3"/>
@@ -2438,7 +2435,7 @@
     </row>
     <row r="112" spans="1:4" ht="14.25" customHeight="1">
       <c r="A112" t="str">
-        <f>IF(ISBLANK(D112),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C112" s="3"/>
@@ -2446,7 +2443,7 @@
     </row>
     <row r="113" spans="1:4" ht="14.25" customHeight="1">
       <c r="A113" t="str">
-        <f>IF(ISBLANK(D113),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C113" s="3"/>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="114" spans="1:4" ht="14.25" customHeight="1">
       <c r="A114" t="str">
-        <f>IF(ISBLANK(D114),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C114" s="3"/>
@@ -2462,7 +2459,7 @@
     </row>
     <row r="115" spans="1:4" ht="14.25" customHeight="1">
       <c r="A115" t="str">
-        <f>IF(ISBLANK(D115),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C115" s="3"/>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="116" spans="1:4" ht="14.25" customHeight="1">
       <c r="A116" t="str">
-        <f>IF(ISBLANK(D116),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C116" s="3"/>
@@ -2478,7 +2475,7 @@
     </row>
     <row r="117" spans="1:4" ht="14.25" customHeight="1">
       <c r="A117" t="str">
-        <f>IF(ISBLANK(D117),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C117" s="3"/>
@@ -2486,7 +2483,7 @@
     </row>
     <row r="118" spans="1:4" ht="14.25" customHeight="1">
       <c r="A118" t="str">
-        <f>IF(ISBLANK(D118),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C118" s="3"/>
@@ -2494,7 +2491,7 @@
     </row>
     <row r="119" spans="1:4" ht="14.25" customHeight="1">
       <c r="A119" t="str">
-        <f>IF(ISBLANK(D119),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C119" s="3"/>
@@ -2502,7 +2499,7 @@
     </row>
     <row r="120" spans="1:4" ht="14.25" customHeight="1">
       <c r="A120" t="str">
-        <f>IF(ISBLANK(D120),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C120" s="3"/>
@@ -2510,7 +2507,7 @@
     </row>
     <row r="121" spans="1:4" ht="14.25" customHeight="1">
       <c r="A121" t="str">
-        <f>IF(ISBLANK(D121),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C121" s="3"/>
@@ -2518,7 +2515,7 @@
     </row>
     <row r="122" spans="1:4" ht="14.25" customHeight="1">
       <c r="A122" t="str">
-        <f>IF(ISBLANK(D122),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C122" s="3"/>
@@ -2526,7 +2523,7 @@
     </row>
     <row r="123" spans="1:4" ht="14.25" customHeight="1">
       <c r="A123" t="str">
-        <f>IF(ISBLANK(D123),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C123" s="3"/>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="124" spans="1:4" ht="14.25" customHeight="1">
       <c r="A124" t="str">
-        <f>IF(ISBLANK(D124),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C124" s="3"/>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="125" spans="1:4" ht="14.25" customHeight="1">
       <c r="A125" t="str">
-        <f>IF(ISBLANK(D125),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C125" s="3"/>
@@ -2550,7 +2547,7 @@
     </row>
     <row r="126" spans="1:4" ht="14.25" customHeight="1">
       <c r="A126" t="str">
-        <f>IF(ISBLANK(D126),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C126" s="3"/>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="127" spans="1:4" ht="14.25" customHeight="1">
       <c r="A127" t="str">
-        <f>IF(ISBLANK(D127),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C127" s="3"/>
@@ -2566,7 +2563,7 @@
     </row>
     <row r="128" spans="1:4" ht="14.25" customHeight="1">
       <c r="A128" t="str">
-        <f>IF(ISBLANK(D128),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C128" s="3"/>
@@ -2574,7 +2571,7 @@
     </row>
     <row r="129" spans="1:4" ht="14.25" customHeight="1">
       <c r="A129" t="str">
-        <f>IF(ISBLANK(D129),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C129" s="3"/>
@@ -2582,7 +2579,7 @@
     </row>
     <row r="130" spans="1:4" ht="14.25" customHeight="1">
       <c r="A130" t="str">
-        <f>IF(ISBLANK(D130),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C130" s="3"/>
@@ -2590,7 +2587,7 @@
     </row>
     <row r="131" spans="1:4" ht="14.25" customHeight="1">
       <c r="A131" t="str">
-        <f>IF(ISBLANK(D131),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C131" s="3"/>
@@ -2598,7 +2595,7 @@
     </row>
     <row r="132" spans="1:4" ht="14.25" customHeight="1">
       <c r="A132" t="str">
-        <f>IF(ISBLANK(D132),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C132" s="3"/>
@@ -2606,7 +2603,7 @@
     </row>
     <row r="133" spans="1:4" ht="14.25" customHeight="1">
       <c r="A133" t="str">
-        <f>IF(ISBLANK(D133),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C133" s="3"/>
@@ -2614,7 +2611,7 @@
     </row>
     <row r="134" spans="1:4" ht="14.25" customHeight="1">
       <c r="A134" t="str">
-        <f>IF(ISBLANK(D134),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C134" s="3"/>
@@ -2622,7 +2619,7 @@
     </row>
     <row r="135" spans="1:4" ht="14.25" customHeight="1">
       <c r="A135" t="str">
-        <f>IF(ISBLANK(D135),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C135" s="3"/>
@@ -2630,7 +2627,7 @@
     </row>
     <row r="136" spans="1:4" ht="14.25" customHeight="1">
       <c r="A136" t="str">
-        <f>IF(ISBLANK(D136),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C136" s="3"/>
@@ -2638,7 +2635,7 @@
     </row>
     <row r="137" spans="1:4" ht="14.25" customHeight="1">
       <c r="A137" t="str">
-        <f>IF(ISBLANK(D137),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C137" s="3"/>
@@ -2646,7 +2643,7 @@
     </row>
     <row r="138" spans="1:4" ht="14.25" customHeight="1">
       <c r="A138" t="str">
-        <f>IF(ISBLANK(D138),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C138" s="3"/>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="139" spans="1:4" ht="14.25" customHeight="1">
       <c r="A139" t="str">
-        <f>IF(ISBLANK(D139),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C139" s="3"/>
@@ -2662,7 +2659,7 @@
     </row>
     <row r="140" spans="1:4" ht="14.25" customHeight="1">
       <c r="A140" t="str">
-        <f>IF(ISBLANK(D140),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C140" s="3"/>
@@ -2670,7 +2667,7 @@
     </row>
     <row r="141" spans="1:4" ht="14.25" customHeight="1">
       <c r="A141" t="str">
-        <f>IF(ISBLANK(D141),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C141" s="3"/>
@@ -2678,7 +2675,7 @@
     </row>
     <row r="142" spans="1:4" ht="14.25" customHeight="1">
       <c r="A142" t="str">
-        <f>IF(ISBLANK(D142),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C142" s="3"/>
@@ -2686,7 +2683,7 @@
     </row>
     <row r="143" spans="1:4" ht="14.25" customHeight="1">
       <c r="A143" t="str">
-        <f>IF(ISBLANK(D143),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C143" s="3"/>
@@ -2694,7 +2691,7 @@
     </row>
     <row r="144" spans="1:4" ht="14.25" customHeight="1">
       <c r="A144" t="str">
-        <f>IF(ISBLANK(D144),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C144" s="3"/>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="145" spans="1:4" ht="14.25" customHeight="1">
       <c r="A145" t="str">
-        <f>IF(ISBLANK(D145),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C145" s="3"/>
@@ -2710,7 +2707,7 @@
     </row>
     <row r="146" spans="1:4" ht="14.25" customHeight="1">
       <c r="A146" t="str">
-        <f>IF(ISBLANK(D146),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C146" s="3"/>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="147" spans="1:4" ht="14.25" customHeight="1">
       <c r="A147" t="str">
-        <f>IF(ISBLANK(D147),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C147" s="3"/>
@@ -2726,7 +2723,7 @@
     </row>
     <row r="148" spans="1:4" ht="14.25" customHeight="1">
       <c r="A148" t="str">
-        <f>IF(ISBLANK(D148),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C148" s="3"/>
@@ -2734,7 +2731,7 @@
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1">
       <c r="A149" t="str">
-        <f>IF(ISBLANK(D149),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C149" s="3"/>
@@ -2742,7 +2739,7 @@
     </row>
     <row r="150" spans="1:4" ht="14.25" customHeight="1">
       <c r="A150" t="str">
-        <f>IF(ISBLANK(D150),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C150" s="3"/>
@@ -2750,7 +2747,7 @@
     </row>
     <row r="151" spans="1:4" ht="14.25" customHeight="1">
       <c r="A151" t="str">
-        <f>IF(ISBLANK(D151),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C151" s="3"/>
@@ -2758,7 +2755,7 @@
     </row>
     <row r="152" spans="1:4" ht="14.25" customHeight="1">
       <c r="A152" t="str">
-        <f>IF(ISBLANK(D152),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C152" s="3"/>
@@ -2766,7 +2763,7 @@
     </row>
     <row r="153" spans="1:4" ht="14.25" customHeight="1">
       <c r="A153" t="str">
-        <f>IF(ISBLANK(D153),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C153" s="3"/>
@@ -2774,7 +2771,7 @@
     </row>
     <row r="154" spans="1:4" ht="14.25" customHeight="1">
       <c r="A154" t="str">
-        <f>IF(ISBLANK(D154),"",ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C154" s="3"/>
@@ -2782,7 +2779,7 @@
     </row>
     <row r="155" spans="1:4" ht="14.25" customHeight="1">
       <c r="A155" t="str">
-        <f>IF(ISBLANK(D155),"",ROW()-4)</f>
+        <f t="shared" ref="A155:A218" si="2">IF(ISBLANK(D155),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="C155" s="3"/>
@@ -2790,7 +2787,7 @@
     </row>
     <row r="156" spans="1:4" ht="14.25" customHeight="1">
       <c r="A156" t="str">
-        <f>IF(ISBLANK(D156),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C156" s="3"/>
@@ -2798,7 +2795,7 @@
     </row>
     <row r="157" spans="1:4" ht="14.25" customHeight="1">
       <c r="A157" t="str">
-        <f>IF(ISBLANK(D157),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C157" s="3"/>
@@ -2806,7 +2803,7 @@
     </row>
     <row r="158" spans="1:4" ht="14.25" customHeight="1">
       <c r="A158" t="str">
-        <f>IF(ISBLANK(D158),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C158" s="3"/>
@@ -2814,7 +2811,7 @@
     </row>
     <row r="159" spans="1:4" ht="14.25" customHeight="1">
       <c r="A159" t="str">
-        <f>IF(ISBLANK(D159),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C159" s="3"/>
@@ -2822,7 +2819,7 @@
     </row>
     <row r="160" spans="1:4" ht="14.25" customHeight="1">
       <c r="A160" t="str">
-        <f>IF(ISBLANK(D160),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C160" s="3"/>
@@ -2830,7 +2827,7 @@
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1">
       <c r="A161" t="str">
-        <f>IF(ISBLANK(D161),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C161" s="3"/>
@@ -2838,7 +2835,7 @@
     </row>
     <row r="162" spans="1:4" ht="14.25" customHeight="1">
       <c r="A162" t="str">
-        <f>IF(ISBLANK(D162),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C162" s="3"/>
@@ -2846,7 +2843,7 @@
     </row>
     <row r="163" spans="1:4" ht="14.25" customHeight="1">
       <c r="A163" t="str">
-        <f>IF(ISBLANK(D163),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C163" s="3"/>
@@ -2854,7 +2851,7 @@
     </row>
     <row r="164" spans="1:4" ht="14.25" customHeight="1">
       <c r="A164" t="str">
-        <f>IF(ISBLANK(D164),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C164" s="3"/>
@@ -2862,7 +2859,7 @@
     </row>
     <row r="165" spans="1:4" ht="14.25" customHeight="1">
       <c r="A165" t="str">
-        <f>IF(ISBLANK(D165),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C165" s="3"/>
@@ -2870,7 +2867,7 @@
     </row>
     <row r="166" spans="1:4" ht="14.25" customHeight="1">
       <c r="A166" t="str">
-        <f>IF(ISBLANK(D166),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C166" s="3"/>
@@ -2878,7 +2875,7 @@
     </row>
     <row r="167" spans="1:4" ht="14.25" customHeight="1">
       <c r="A167" t="str">
-        <f>IF(ISBLANK(D167),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C167" s="3"/>
@@ -2886,7 +2883,7 @@
     </row>
     <row r="168" spans="1:4" ht="14.25" customHeight="1">
       <c r="A168" t="str">
-        <f>IF(ISBLANK(D168),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C168" s="3"/>
@@ -2894,7 +2891,7 @@
     </row>
     <row r="169" spans="1:4" ht="14.25" customHeight="1">
       <c r="A169" t="str">
-        <f>IF(ISBLANK(D169),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C169" s="3"/>
@@ -2902,7 +2899,7 @@
     </row>
     <row r="170" spans="1:4" ht="14.25" customHeight="1">
       <c r="A170" t="str">
-        <f>IF(ISBLANK(D170),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C170" s="3"/>
@@ -2910,7 +2907,7 @@
     </row>
     <row r="171" spans="1:4" ht="14.25" customHeight="1">
       <c r="A171" t="str">
-        <f>IF(ISBLANK(D171),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C171" s="3"/>
@@ -2918,7 +2915,7 @@
     </row>
     <row r="172" spans="1:4" ht="14.25" customHeight="1">
       <c r="A172" t="str">
-        <f>IF(ISBLANK(D172),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C172" s="3"/>
@@ -2926,7 +2923,7 @@
     </row>
     <row r="173" spans="1:4" ht="14.25" customHeight="1">
       <c r="A173" t="str">
-        <f>IF(ISBLANK(D173),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C173" s="3"/>
@@ -2934,7 +2931,7 @@
     </row>
     <row r="174" spans="1:4" ht="14.25" customHeight="1">
       <c r="A174" t="str">
-        <f>IF(ISBLANK(D174),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C174" s="3"/>
@@ -2942,7 +2939,7 @@
     </row>
     <row r="175" spans="1:4" ht="14.25" customHeight="1">
       <c r="A175" t="str">
-        <f>IF(ISBLANK(D175),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C175" s="3"/>
@@ -2950,7 +2947,7 @@
     </row>
     <row r="176" spans="1:4" ht="14.25" customHeight="1">
       <c r="A176" t="str">
-        <f>IF(ISBLANK(D176),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C176" s="3"/>
@@ -2958,7 +2955,7 @@
     </row>
     <row r="177" spans="1:4" ht="14.25" customHeight="1">
       <c r="A177" t="str">
-        <f>IF(ISBLANK(D177),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C177" s="3"/>
@@ -2966,7 +2963,7 @@
     </row>
     <row r="178" spans="1:4" ht="14.25" customHeight="1">
       <c r="A178" t="str">
-        <f>IF(ISBLANK(D178),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C178" s="3"/>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="179" spans="1:4" ht="14.25" customHeight="1">
       <c r="A179" t="str">
-        <f>IF(ISBLANK(D179),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C179" s="3"/>
@@ -2982,7 +2979,7 @@
     </row>
     <row r="180" spans="1:4" ht="14.25" customHeight="1">
       <c r="A180" t="str">
-        <f>IF(ISBLANK(D180),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C180" s="3"/>
@@ -2990,7 +2987,7 @@
     </row>
     <row r="181" spans="1:4" ht="14.25" customHeight="1">
       <c r="A181" t="str">
-        <f>IF(ISBLANK(D181),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C181" s="3"/>
@@ -2998,7 +2995,7 @@
     </row>
     <row r="182" spans="1:4" ht="14.25" customHeight="1">
       <c r="A182" t="str">
-        <f>IF(ISBLANK(D182),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C182" s="3"/>
@@ -3006,7 +3003,7 @@
     </row>
     <row r="183" spans="1:4" ht="14.25" customHeight="1">
       <c r="A183" t="str">
-        <f>IF(ISBLANK(D183),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C183" s="3"/>
@@ -3014,7 +3011,7 @@
     </row>
     <row r="184" spans="1:4" ht="14.25" customHeight="1">
       <c r="A184" t="str">
-        <f>IF(ISBLANK(D184),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C184" s="3"/>
@@ -3022,7 +3019,7 @@
     </row>
     <row r="185" spans="1:4" ht="14.25" customHeight="1">
       <c r="A185" t="str">
-        <f>IF(ISBLANK(D185),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C185" s="3"/>
@@ -3030,7 +3027,7 @@
     </row>
     <row r="186" spans="1:4" ht="14.25" customHeight="1">
       <c r="A186" t="str">
-        <f>IF(ISBLANK(D186),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C186" s="3"/>
@@ -3038,7 +3035,7 @@
     </row>
     <row r="187" spans="1:4" ht="14.25" customHeight="1">
       <c r="A187" t="str">
-        <f>IF(ISBLANK(D187),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C187" s="3"/>
@@ -3046,7 +3043,7 @@
     </row>
     <row r="188" spans="1:4" ht="14.25" customHeight="1">
       <c r="A188" t="str">
-        <f>IF(ISBLANK(D188),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C188" s="3"/>
@@ -3054,7 +3051,7 @@
     </row>
     <row r="189" spans="1:4" ht="14.25" customHeight="1">
       <c r="A189" t="str">
-        <f>IF(ISBLANK(D189),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C189" s="3"/>
@@ -3062,7 +3059,7 @@
     </row>
     <row r="190" spans="1:4" ht="14.25" customHeight="1">
       <c r="A190" t="str">
-        <f>IF(ISBLANK(D190),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C190" s="3"/>
@@ -3070,7 +3067,7 @@
     </row>
     <row r="191" spans="1:4" ht="14.25" customHeight="1">
       <c r="A191" t="str">
-        <f>IF(ISBLANK(D191),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C191" s="3"/>
@@ -3078,7 +3075,7 @@
     </row>
     <row r="192" spans="1:4" ht="14.25" customHeight="1">
       <c r="A192" t="str">
-        <f>IF(ISBLANK(D192),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C192" s="3"/>
@@ -3086,7 +3083,7 @@
     </row>
     <row r="193" spans="1:4" ht="14.25" customHeight="1">
       <c r="A193" t="str">
-        <f>IF(ISBLANK(D193),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C193" s="3"/>
@@ -3094,7 +3091,7 @@
     </row>
     <row r="194" spans="1:4" ht="14.25" customHeight="1">
       <c r="A194" t="str">
-        <f>IF(ISBLANK(D194),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C194" s="3"/>
@@ -3102,7 +3099,7 @@
     </row>
     <row r="195" spans="1:4" ht="14.25" customHeight="1">
       <c r="A195" t="str">
-        <f>IF(ISBLANK(D195),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C195" s="3"/>
@@ -3110,7 +3107,7 @@
     </row>
     <row r="196" spans="1:4" ht="14.25" customHeight="1">
       <c r="A196" t="str">
-        <f>IF(ISBLANK(D196),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C196" s="3"/>
@@ -3118,7 +3115,7 @@
     </row>
     <row r="197" spans="1:4" ht="14.25" customHeight="1">
       <c r="A197" t="str">
-        <f>IF(ISBLANK(D197),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C197" s="3"/>
@@ -3126,7 +3123,7 @@
     </row>
     <row r="198" spans="1:4" ht="14.25" customHeight="1">
       <c r="A198" t="str">
-        <f>IF(ISBLANK(D198),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C198" s="3"/>
@@ -3134,7 +3131,7 @@
     </row>
     <row r="199" spans="1:4" ht="14.25" customHeight="1">
       <c r="A199" t="str">
-        <f>IF(ISBLANK(D199),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C199" s="3"/>
@@ -3142,7 +3139,7 @@
     </row>
     <row r="200" spans="1:4" ht="14.25" customHeight="1">
       <c r="A200" t="str">
-        <f>IF(ISBLANK(D200),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C200" s="3"/>
@@ -3150,7 +3147,7 @@
     </row>
     <row r="201" spans="1:4" ht="14.25" customHeight="1">
       <c r="A201" t="str">
-        <f>IF(ISBLANK(D201),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C201" s="3"/>
@@ -3158,7 +3155,7 @@
     </row>
     <row r="202" spans="1:4" ht="14.25" customHeight="1">
       <c r="A202" t="str">
-        <f>IF(ISBLANK(D202),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C202" s="3"/>
@@ -3166,7 +3163,7 @@
     </row>
     <row r="203" spans="1:4" ht="14.25" customHeight="1">
       <c r="A203" t="str">
-        <f>IF(ISBLANK(D203),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C203" s="3"/>
@@ -3174,7 +3171,7 @@
     </row>
     <row r="204" spans="1:4" ht="14.25" customHeight="1">
       <c r="A204" t="str">
-        <f>IF(ISBLANK(D204),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C204" s="3"/>
@@ -3182,7 +3179,7 @@
     </row>
     <row r="205" spans="1:4" ht="14.25" customHeight="1">
       <c r="A205" t="str">
-        <f>IF(ISBLANK(D205),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C205" s="3"/>
@@ -3190,7 +3187,7 @@
     </row>
     <row r="206" spans="1:4" ht="14.25" customHeight="1">
       <c r="A206" t="str">
-        <f>IF(ISBLANK(D206),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C206" s="3"/>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="207" spans="1:4" ht="14.25" customHeight="1">
       <c r="A207" t="str">
-        <f>IF(ISBLANK(D207),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C207" s="3"/>
@@ -3206,7 +3203,7 @@
     </row>
     <row r="208" spans="1:4" ht="14.25" customHeight="1">
       <c r="A208" t="str">
-        <f>IF(ISBLANK(D208),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C208" s="3"/>
@@ -3214,7 +3211,7 @@
     </row>
     <row r="209" spans="1:4" ht="14.25" customHeight="1">
       <c r="A209" t="str">
-        <f>IF(ISBLANK(D209),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C209" s="3"/>
@@ -3222,7 +3219,7 @@
     </row>
     <row r="210" spans="1:4" ht="14.25" customHeight="1">
       <c r="A210" t="str">
-        <f>IF(ISBLANK(D210),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C210" s="3"/>
@@ -3230,7 +3227,7 @@
     </row>
     <row r="211" spans="1:4" ht="14.25" customHeight="1">
       <c r="A211" t="str">
-        <f>IF(ISBLANK(D211),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C211" s="3"/>
@@ -3238,7 +3235,7 @@
     </row>
     <row r="212" spans="1:4" ht="14.25" customHeight="1">
       <c r="A212" t="str">
-        <f>IF(ISBLANK(D212),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C212" s="3"/>
@@ -3246,7 +3243,7 @@
     </row>
     <row r="213" spans="1:4" ht="14.25" customHeight="1">
       <c r="A213" t="str">
-        <f>IF(ISBLANK(D213),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C213" s="3"/>
@@ -3254,7 +3251,7 @@
     </row>
     <row r="214" spans="1:4" ht="14.25" customHeight="1">
       <c r="A214" t="str">
-        <f>IF(ISBLANK(D214),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C214" s="3"/>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="215" spans="1:4" ht="14.25" customHeight="1">
       <c r="A215" t="str">
-        <f>IF(ISBLANK(D215),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C215" s="3"/>
@@ -3270,7 +3267,7 @@
     </row>
     <row r="216" spans="1:4" ht="14.25" customHeight="1">
       <c r="A216" t="str">
-        <f>IF(ISBLANK(D216),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C216" s="3"/>
@@ -3278,7 +3275,7 @@
     </row>
     <row r="217" spans="1:4" ht="14.25" customHeight="1">
       <c r="A217" t="str">
-        <f>IF(ISBLANK(D217),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C217" s="3"/>
@@ -3286,7 +3283,7 @@
     </row>
     <row r="218" spans="1:4" ht="14.25" customHeight="1">
       <c r="A218" t="str">
-        <f>IF(ISBLANK(D218),"",ROW()-4)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C218" s="3"/>
@@ -3294,7 +3291,7 @@
     </row>
     <row r="219" spans="1:4" ht="14.25" customHeight="1">
       <c r="A219" t="str">
-        <f>IF(ISBLANK(D219),"",ROW()-4)</f>
+        <f t="shared" ref="A219:A282" si="3">IF(ISBLANK(D219),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="C219" s="3"/>
@@ -3302,7 +3299,7 @@
     </row>
     <row r="220" spans="1:4" ht="14.25" customHeight="1">
       <c r="A220" t="str">
-        <f>IF(ISBLANK(D220),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C220" s="3"/>
@@ -3310,7 +3307,7 @@
     </row>
     <row r="221" spans="1:4" ht="14.25" customHeight="1">
       <c r="A221" t="str">
-        <f>IF(ISBLANK(D221),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C221" s="3"/>
@@ -3318,7 +3315,7 @@
     </row>
     <row r="222" spans="1:4" ht="14.25" customHeight="1">
       <c r="A222" t="str">
-        <f>IF(ISBLANK(D222),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C222" s="3"/>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="223" spans="1:4" ht="14.25" customHeight="1">
       <c r="A223" t="str">
-        <f>IF(ISBLANK(D223),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C223" s="3"/>
@@ -3334,7 +3331,7 @@
     </row>
     <row r="224" spans="1:4" ht="14.25" customHeight="1">
       <c r="A224" t="str">
-        <f>IF(ISBLANK(D224),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C224" s="3"/>
@@ -3342,7 +3339,7 @@
     </row>
     <row r="225" spans="1:4" ht="14.25" customHeight="1">
       <c r="A225" t="str">
-        <f>IF(ISBLANK(D225),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C225" s="3"/>
@@ -3350,7 +3347,7 @@
     </row>
     <row r="226" spans="1:4" ht="14.25" customHeight="1">
       <c r="A226" t="str">
-        <f>IF(ISBLANK(D226),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C226" s="3"/>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="227" spans="1:4" ht="14.25" customHeight="1">
       <c r="A227" t="str">
-        <f>IF(ISBLANK(D227),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C227" s="3"/>
@@ -3366,7 +3363,7 @@
     </row>
     <row r="228" spans="1:4" ht="14.25" customHeight="1">
       <c r="A228" t="str">
-        <f>IF(ISBLANK(D228),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C228" s="3"/>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="229" spans="1:4" ht="14.25" customHeight="1">
       <c r="A229" t="str">
-        <f>IF(ISBLANK(D229),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C229" s="3"/>
@@ -3382,7 +3379,7 @@
     </row>
     <row r="230" spans="1:4" ht="14.25" customHeight="1">
       <c r="A230" t="str">
-        <f>IF(ISBLANK(D230),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C230" s="3"/>
@@ -3390,7 +3387,7 @@
     </row>
     <row r="231" spans="1:4" ht="14.25" customHeight="1">
       <c r="A231" t="str">
-        <f>IF(ISBLANK(D231),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C231" s="3"/>
@@ -3398,7 +3395,7 @@
     </row>
     <row r="232" spans="1:4" ht="14.25" customHeight="1">
       <c r="A232" t="str">
-        <f>IF(ISBLANK(D232),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C232" s="3"/>
@@ -3406,7 +3403,7 @@
     </row>
     <row r="233" spans="1:4" ht="14.25" customHeight="1">
       <c r="A233" t="str">
-        <f>IF(ISBLANK(D233),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C233" s="3"/>
@@ -3414,7 +3411,7 @@
     </row>
     <row r="234" spans="1:4" ht="14.25" customHeight="1">
       <c r="A234" t="str">
-        <f>IF(ISBLANK(D234),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C234" s="3"/>
@@ -3422,7 +3419,7 @@
     </row>
     <row r="235" spans="1:4" ht="14.25" customHeight="1">
       <c r="A235" t="str">
-        <f>IF(ISBLANK(D235),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C235" s="3"/>
@@ -3430,7 +3427,7 @@
     </row>
     <row r="236" spans="1:4" ht="14.25" customHeight="1">
       <c r="A236" t="str">
-        <f>IF(ISBLANK(D236),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C236" s="3"/>
@@ -3438,7 +3435,7 @@
     </row>
     <row r="237" spans="1:4" ht="14.25" customHeight="1">
       <c r="A237" t="str">
-        <f>IF(ISBLANK(D237),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C237" s="3"/>
@@ -3446,7 +3443,7 @@
     </row>
     <row r="238" spans="1:4" ht="14.25" customHeight="1">
       <c r="A238" t="str">
-        <f>IF(ISBLANK(D238),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C238" s="3"/>
@@ -3454,7 +3451,7 @@
     </row>
     <row r="239" spans="1:4" ht="14.25" customHeight="1">
       <c r="A239" t="str">
-        <f>IF(ISBLANK(D239),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C239" s="3"/>
@@ -3462,7 +3459,7 @@
     </row>
     <row r="240" spans="1:4" ht="14.25" customHeight="1">
       <c r="A240" t="str">
-        <f>IF(ISBLANK(D240),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C240" s="3"/>
@@ -3470,7 +3467,7 @@
     </row>
     <row r="241" spans="1:4" ht="14.25" customHeight="1">
       <c r="A241" t="str">
-        <f>IF(ISBLANK(D241),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C241" s="3"/>
@@ -3478,7 +3475,7 @@
     </row>
     <row r="242" spans="1:4" ht="14.25" customHeight="1">
       <c r="A242" t="str">
-        <f>IF(ISBLANK(D242),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C242" s="3"/>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="243" spans="1:4" ht="14.25" customHeight="1">
       <c r="A243" t="str">
-        <f>IF(ISBLANK(D243),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C243" s="3"/>
@@ -3494,7 +3491,7 @@
     </row>
     <row r="244" spans="1:4" ht="14.25" customHeight="1">
       <c r="A244" t="str">
-        <f>IF(ISBLANK(D244),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C244" s="3"/>
@@ -3502,7 +3499,7 @@
     </row>
     <row r="245" spans="1:4" ht="14.25" customHeight="1">
       <c r="A245" t="str">
-        <f>IF(ISBLANK(D245),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C245" s="3"/>
@@ -3510,7 +3507,7 @@
     </row>
     <row r="246" spans="1:4" ht="14.25" customHeight="1">
       <c r="A246" t="str">
-        <f>IF(ISBLANK(D246),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C246" s="3"/>
@@ -3518,7 +3515,7 @@
     </row>
     <row r="247" spans="1:4" ht="14.25" customHeight="1">
       <c r="A247" t="str">
-        <f>IF(ISBLANK(D247),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C247" s="3"/>
@@ -3526,7 +3523,7 @@
     </row>
     <row r="248" spans="1:4" ht="14.25" customHeight="1">
       <c r="A248" t="str">
-        <f>IF(ISBLANK(D248),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C248" s="3"/>
@@ -3534,7 +3531,7 @@
     </row>
     <row r="249" spans="1:4" ht="14.25" customHeight="1">
       <c r="A249" t="str">
-        <f>IF(ISBLANK(D249),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C249" s="3"/>
@@ -3542,7 +3539,7 @@
     </row>
     <row r="250" spans="1:4" ht="14.25" customHeight="1">
       <c r="A250" t="str">
-        <f>IF(ISBLANK(D250),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C250" s="3"/>
@@ -3550,7 +3547,7 @@
     </row>
     <row r="251" spans="1:4" ht="14.25" customHeight="1">
       <c r="A251" t="str">
-        <f>IF(ISBLANK(D251),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C251" s="3"/>
@@ -3558,7 +3555,7 @@
     </row>
     <row r="252" spans="1:4" ht="14.25" customHeight="1">
       <c r="A252" t="str">
-        <f>IF(ISBLANK(D252),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C252" s="3"/>
@@ -3566,7 +3563,7 @@
     </row>
     <row r="253" spans="1:4" ht="14.25" customHeight="1">
       <c r="A253" t="str">
-        <f>IF(ISBLANK(D253),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C253" s="3"/>
@@ -3574,7 +3571,7 @@
     </row>
     <row r="254" spans="1:4" ht="14.25" customHeight="1">
       <c r="A254" t="str">
-        <f>IF(ISBLANK(D254),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C254" s="3"/>
@@ -3582,7 +3579,7 @@
     </row>
     <row r="255" spans="1:4" ht="14.25" customHeight="1">
       <c r="A255" t="str">
-        <f>IF(ISBLANK(D255),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C255" s="3"/>
@@ -3590,7 +3587,7 @@
     </row>
     <row r="256" spans="1:4" ht="14.25" customHeight="1">
       <c r="A256" t="str">
-        <f>IF(ISBLANK(D256),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C256" s="3"/>
@@ -3598,7 +3595,7 @@
     </row>
     <row r="257" spans="1:4" ht="14.25" customHeight="1">
       <c r="A257" t="str">
-        <f>IF(ISBLANK(D257),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C257" s="3"/>
@@ -3606,7 +3603,7 @@
     </row>
     <row r="258" spans="1:4" ht="14.25" customHeight="1">
       <c r="A258" t="str">
-        <f>IF(ISBLANK(D258),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C258" s="3"/>
@@ -3614,7 +3611,7 @@
     </row>
     <row r="259" spans="1:4" ht="14.25" customHeight="1">
       <c r="A259" t="str">
-        <f>IF(ISBLANK(D259),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C259" s="3"/>
@@ -3622,7 +3619,7 @@
     </row>
     <row r="260" spans="1:4" ht="14.25" customHeight="1">
       <c r="A260" t="str">
-        <f>IF(ISBLANK(D260),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C260" s="3"/>
@@ -3630,7 +3627,7 @@
     </row>
     <row r="261" spans="1:4" ht="14.25" customHeight="1">
       <c r="A261" t="str">
-        <f>IF(ISBLANK(D261),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C261" s="3"/>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="262" spans="1:4" ht="14.25" customHeight="1">
       <c r="A262" t="str">
-        <f>IF(ISBLANK(D262),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C262" s="3"/>
@@ -3646,7 +3643,7 @@
     </row>
     <row r="263" spans="1:4" ht="14.25" customHeight="1">
       <c r="A263" t="str">
-        <f>IF(ISBLANK(D263),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C263" s="3"/>
@@ -3654,7 +3651,7 @@
     </row>
     <row r="264" spans="1:4" ht="14.25" customHeight="1">
       <c r="A264" t="str">
-        <f>IF(ISBLANK(D264),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C264" s="3"/>
@@ -3662,7 +3659,7 @@
     </row>
     <row r="265" spans="1:4" ht="14.25" customHeight="1">
       <c r="A265" t="str">
-        <f>IF(ISBLANK(D265),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C265" s="3"/>
@@ -3670,7 +3667,7 @@
     </row>
     <row r="266" spans="1:4" ht="14.25" customHeight="1">
       <c r="A266" t="str">
-        <f>IF(ISBLANK(D266),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C266" s="3"/>
@@ -3678,7 +3675,7 @@
     </row>
     <row r="267" spans="1:4" ht="14.25" customHeight="1">
       <c r="A267" t="str">
-        <f>IF(ISBLANK(D267),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C267" s="3"/>
@@ -3686,7 +3683,7 @@
     </row>
     <row r="268" spans="1:4" ht="14.25" customHeight="1">
       <c r="A268" t="str">
-        <f>IF(ISBLANK(D268),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C268" s="3"/>
@@ -3694,7 +3691,7 @@
     </row>
     <row r="269" spans="1:4" ht="14.25" customHeight="1">
       <c r="A269" t="str">
-        <f>IF(ISBLANK(D269),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C269" s="3"/>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="270" spans="1:4" ht="14.25" customHeight="1">
       <c r="A270" t="str">
-        <f>IF(ISBLANK(D270),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C270" s="3"/>
@@ -3710,7 +3707,7 @@
     </row>
     <row r="271" spans="1:4" ht="14.25" customHeight="1">
       <c r="A271" t="str">
-        <f>IF(ISBLANK(D271),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C271" s="3"/>
@@ -3718,7 +3715,7 @@
     </row>
     <row r="272" spans="1:4" ht="14.25" customHeight="1">
       <c r="A272" t="str">
-        <f>IF(ISBLANK(D272),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C272" s="3"/>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="273" spans="1:4" ht="14.25" customHeight="1">
       <c r="A273" t="str">
-        <f>IF(ISBLANK(D273),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C273" s="3"/>
@@ -3734,7 +3731,7 @@
     </row>
     <row r="274" spans="1:4" ht="14.25" customHeight="1">
       <c r="A274" t="str">
-        <f>IF(ISBLANK(D274),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C274" s="3"/>
@@ -3742,7 +3739,7 @@
     </row>
     <row r="275" spans="1:4" ht="14.25" customHeight="1">
       <c r="A275" t="str">
-        <f>IF(ISBLANK(D275),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C275" s="3"/>
@@ -3750,7 +3747,7 @@
     </row>
     <row r="276" spans="1:4" ht="14.25" customHeight="1">
       <c r="A276" t="str">
-        <f>IF(ISBLANK(D276),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C276" s="3"/>
@@ -3758,7 +3755,7 @@
     </row>
     <row r="277" spans="1:4" ht="14.25" customHeight="1">
       <c r="A277" t="str">
-        <f>IF(ISBLANK(D277),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C277" s="3"/>
@@ -3766,7 +3763,7 @@
     </row>
     <row r="278" spans="1:4" ht="14.25" customHeight="1">
       <c r="A278" t="str">
-        <f>IF(ISBLANK(D278),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C278" s="3"/>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="279" spans="1:4" ht="14.25" customHeight="1">
       <c r="A279" t="str">
-        <f>IF(ISBLANK(D279),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C279" s="3"/>
@@ -3782,7 +3779,7 @@
     </row>
     <row r="280" spans="1:4" ht="14.25" customHeight="1">
       <c r="A280" t="str">
-        <f>IF(ISBLANK(D280),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C280" s="3"/>
@@ -3790,7 +3787,7 @@
     </row>
     <row r="281" spans="1:4" ht="14.25" customHeight="1">
       <c r="A281" t="str">
-        <f>IF(ISBLANK(D281),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C281" s="3"/>
@@ -3798,7 +3795,7 @@
     </row>
     <row r="282" spans="1:4" ht="14.25" customHeight="1">
       <c r="A282" t="str">
-        <f>IF(ISBLANK(D282),"",ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C282" s="3"/>
@@ -3806,7 +3803,7 @@
     </row>
     <row r="283" spans="1:4" ht="14.25" customHeight="1">
       <c r="A283" t="str">
-        <f>IF(ISBLANK(D283),"",ROW()-4)</f>
+        <f t="shared" ref="A283:A346" si="4">IF(ISBLANK(D283),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="C283" s="3"/>
@@ -3814,7 +3811,7 @@
     </row>
     <row r="284" spans="1:4" ht="14.25" customHeight="1">
       <c r="A284" t="str">
-        <f>IF(ISBLANK(D284),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C284" s="3"/>
@@ -3822,7 +3819,7 @@
     </row>
     <row r="285" spans="1:4" ht="14.25" customHeight="1">
       <c r="A285" t="str">
-        <f>IF(ISBLANK(D285),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C285" s="3"/>
@@ -3830,7 +3827,7 @@
     </row>
     <row r="286" spans="1:4" ht="14.25" customHeight="1">
       <c r="A286" t="str">
-        <f>IF(ISBLANK(D286),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C286" s="3"/>
@@ -3838,7 +3835,7 @@
     </row>
     <row r="287" spans="1:4" ht="14.25" customHeight="1">
       <c r="A287" t="str">
-        <f>IF(ISBLANK(D287),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C287" s="3"/>
@@ -3846,7 +3843,7 @@
     </row>
     <row r="288" spans="1:4" ht="14.25" customHeight="1">
       <c r="A288" t="str">
-        <f>IF(ISBLANK(D288),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C288" s="3"/>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="289" spans="1:4" ht="14.25" customHeight="1">
       <c r="A289" t="str">
-        <f>IF(ISBLANK(D289),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C289" s="3"/>
@@ -3862,7 +3859,7 @@
     </row>
     <row r="290" spans="1:4" ht="14.25" customHeight="1">
       <c r="A290" t="str">
-        <f>IF(ISBLANK(D290),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C290" s="3"/>
@@ -3870,7 +3867,7 @@
     </row>
     <row r="291" spans="1:4" ht="14.25" customHeight="1">
       <c r="A291" t="str">
-        <f>IF(ISBLANK(D291),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C291" s="3"/>
@@ -3878,7 +3875,7 @@
     </row>
     <row r="292" spans="1:4" ht="14.25" customHeight="1">
       <c r="A292" t="str">
-        <f>IF(ISBLANK(D292),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C292" s="3"/>
@@ -3886,7 +3883,7 @@
     </row>
     <row r="293" spans="1:4" ht="14.25" customHeight="1">
       <c r="A293" t="str">
-        <f>IF(ISBLANK(D293),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C293" s="3"/>
@@ -3894,7 +3891,7 @@
     </row>
     <row r="294" spans="1:4" ht="14.25" customHeight="1">
       <c r="A294" t="str">
-        <f>IF(ISBLANK(D294),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C294" s="3"/>
@@ -3902,7 +3899,7 @@
     </row>
     <row r="295" spans="1:4" ht="14.25" customHeight="1">
       <c r="A295" t="str">
-        <f>IF(ISBLANK(D295),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C295" s="3"/>
@@ -3910,7 +3907,7 @@
     </row>
     <row r="296" spans="1:4" ht="14.25" customHeight="1">
       <c r="A296" t="str">
-        <f>IF(ISBLANK(D296),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C296" s="3"/>
@@ -3918,7 +3915,7 @@
     </row>
     <row r="297" spans="1:4" ht="14.25" customHeight="1">
       <c r="A297" t="str">
-        <f>IF(ISBLANK(D297),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C297" s="3"/>
@@ -3926,7 +3923,7 @@
     </row>
     <row r="298" spans="1:4" ht="14.25" customHeight="1">
       <c r="A298" t="str">
-        <f>IF(ISBLANK(D298),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C298" s="3"/>
@@ -3934,7 +3931,7 @@
     </row>
     <row r="299" spans="1:4" ht="14.25" customHeight="1">
       <c r="A299" t="str">
-        <f>IF(ISBLANK(D299),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C299" s="3"/>
@@ -3942,7 +3939,7 @@
     </row>
     <row r="300" spans="1:4" ht="14.25" customHeight="1">
       <c r="A300" t="str">
-        <f>IF(ISBLANK(D300),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C300" s="3"/>
@@ -3950,7 +3947,7 @@
     </row>
     <row r="301" spans="1:4" ht="14.25" customHeight="1">
       <c r="A301" t="str">
-        <f>IF(ISBLANK(D301),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C301" s="3"/>
@@ -3958,7 +3955,7 @@
     </row>
     <row r="302" spans="1:4" ht="14.25" customHeight="1">
       <c r="A302" t="str">
-        <f>IF(ISBLANK(D302),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C302" s="3"/>
@@ -3966,7 +3963,7 @@
     </row>
     <row r="303" spans="1:4" ht="14.25" customHeight="1">
       <c r="A303" t="str">
-        <f>IF(ISBLANK(D303),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C303" s="3"/>
@@ -3974,7 +3971,7 @@
     </row>
     <row r="304" spans="1:4" ht="14.25" customHeight="1">
       <c r="A304" t="str">
-        <f>IF(ISBLANK(D304),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C304" s="3"/>
@@ -3982,7 +3979,7 @@
     </row>
     <row r="305" spans="1:4" ht="14.25" customHeight="1">
       <c r="A305" t="str">
-        <f>IF(ISBLANK(D305),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C305" s="3"/>
@@ -3990,7 +3987,7 @@
     </row>
     <row r="306" spans="1:4" ht="14.25" customHeight="1">
       <c r="A306" t="str">
-        <f>IF(ISBLANK(D306),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C306" s="3"/>
@@ -3998,7 +3995,7 @@
     </row>
     <row r="307" spans="1:4" ht="14.25" customHeight="1">
       <c r="A307" t="str">
-        <f>IF(ISBLANK(D307),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C307" s="3"/>
@@ -4006,7 +4003,7 @@
     </row>
     <row r="308" spans="1:4" ht="14.25" customHeight="1">
       <c r="A308" t="str">
-        <f>IF(ISBLANK(D308),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C308" s="3"/>
@@ -4014,7 +4011,7 @@
     </row>
     <row r="309" spans="1:4" ht="14.25" customHeight="1">
       <c r="A309" t="str">
-        <f>IF(ISBLANK(D309),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C309" s="3"/>
@@ -4022,7 +4019,7 @@
     </row>
     <row r="310" spans="1:4" ht="14.25" customHeight="1">
       <c r="A310" t="str">
-        <f>IF(ISBLANK(D310),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C310" s="3"/>
@@ -4030,7 +4027,7 @@
     </row>
     <row r="311" spans="1:4" ht="14.25" customHeight="1">
       <c r="A311" t="str">
-        <f>IF(ISBLANK(D311),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C311" s="3"/>
@@ -4038,7 +4035,7 @@
     </row>
     <row r="312" spans="1:4" ht="14.25" customHeight="1">
       <c r="A312" t="str">
-        <f>IF(ISBLANK(D312),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C312" s="3"/>
@@ -4046,7 +4043,7 @@
     </row>
     <row r="313" spans="1:4" ht="14.25" customHeight="1">
       <c r="A313" t="str">
-        <f>IF(ISBLANK(D313),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C313" s="3"/>
@@ -4054,7 +4051,7 @@
     </row>
     <row r="314" spans="1:4" ht="14.25" customHeight="1">
       <c r="A314" t="str">
-        <f>IF(ISBLANK(D314),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C314" s="3"/>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="315" spans="1:4" ht="14.25" customHeight="1">
       <c r="A315" t="str">
-        <f>IF(ISBLANK(D315),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C315" s="3"/>
@@ -4070,7 +4067,7 @@
     </row>
     <row r="316" spans="1:4" ht="14.25" customHeight="1">
       <c r="A316" t="str">
-        <f>IF(ISBLANK(D316),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C316" s="3"/>
@@ -4078,7 +4075,7 @@
     </row>
     <row r="317" spans="1:4" ht="14.25" customHeight="1">
       <c r="A317" t="str">
-        <f>IF(ISBLANK(D317),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C317" s="3"/>
@@ -4086,7 +4083,7 @@
     </row>
     <row r="318" spans="1:4" ht="14.25" customHeight="1">
       <c r="A318" t="str">
-        <f>IF(ISBLANK(D318),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C318" s="3"/>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="319" spans="1:4" ht="14.25" customHeight="1">
       <c r="A319" t="str">
-        <f>IF(ISBLANK(D319),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C319" s="3"/>
@@ -4102,7 +4099,7 @@
     </row>
     <row r="320" spans="1:4" ht="14.25" customHeight="1">
       <c r="A320" t="str">
-        <f>IF(ISBLANK(D320),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C320" s="3"/>
@@ -4110,7 +4107,7 @@
     </row>
     <row r="321" spans="1:4" ht="14.25" customHeight="1">
       <c r="A321" t="str">
-        <f>IF(ISBLANK(D321),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C321" s="3"/>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="322" spans="1:4" ht="14.25" customHeight="1">
       <c r="A322" t="str">
-        <f>IF(ISBLANK(D322),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C322" s="3"/>
@@ -4126,7 +4123,7 @@
     </row>
     <row r="323" spans="1:4" ht="14.25" customHeight="1">
       <c r="A323" t="str">
-        <f>IF(ISBLANK(D323),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C323" s="3"/>
@@ -4134,7 +4131,7 @@
     </row>
     <row r="324" spans="1:4" ht="14.25" customHeight="1">
       <c r="A324" t="str">
-        <f>IF(ISBLANK(D324),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C324" s="3"/>
@@ -4142,7 +4139,7 @@
     </row>
     <row r="325" spans="1:4" ht="14.25" customHeight="1">
       <c r="A325" t="str">
-        <f>IF(ISBLANK(D325),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C325" s="3"/>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="326" spans="1:4" ht="14.25" customHeight="1">
       <c r="A326" t="str">
-        <f>IF(ISBLANK(D326),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C326" s="3"/>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="327" spans="1:4" ht="14.25" customHeight="1">
       <c r="A327" t="str">
-        <f>IF(ISBLANK(D327),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C327" s="3"/>
@@ -4166,7 +4163,7 @@
     </row>
     <row r="328" spans="1:4" ht="14.25" customHeight="1">
       <c r="A328" t="str">
-        <f>IF(ISBLANK(D328),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C328" s="3"/>
@@ -4174,7 +4171,7 @@
     </row>
     <row r="329" spans="1:4" ht="14.25" customHeight="1">
       <c r="A329" t="str">
-        <f>IF(ISBLANK(D329),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C329" s="3"/>
@@ -4182,7 +4179,7 @@
     </row>
     <row r="330" spans="1:4" ht="14.25" customHeight="1">
       <c r="A330" t="str">
-        <f>IF(ISBLANK(D330),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C330" s="3"/>
@@ -4190,7 +4187,7 @@
     </row>
     <row r="331" spans="1:4" ht="14.25" customHeight="1">
       <c r="A331" t="str">
-        <f>IF(ISBLANK(D331),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C331" s="3"/>
@@ -4198,7 +4195,7 @@
     </row>
     <row r="332" spans="1:4" ht="14.25" customHeight="1">
       <c r="A332" t="str">
-        <f>IF(ISBLANK(D332),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C332" s="3"/>
@@ -4206,7 +4203,7 @@
     </row>
     <row r="333" spans="1:4" ht="14.25" customHeight="1">
       <c r="A333" t="str">
-        <f>IF(ISBLANK(D333),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C333" s="3"/>
@@ -4214,7 +4211,7 @@
     </row>
     <row r="334" spans="1:4" ht="14.25" customHeight="1">
       <c r="A334" t="str">
-        <f>IF(ISBLANK(D334),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C334" s="3"/>
@@ -4222,7 +4219,7 @@
     </row>
     <row r="335" spans="1:4" ht="14.25" customHeight="1">
       <c r="A335" t="str">
-        <f>IF(ISBLANK(D335),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C335" s="3"/>
@@ -4230,7 +4227,7 @@
     </row>
     <row r="336" spans="1:4" ht="14.25" customHeight="1">
       <c r="A336" t="str">
-        <f>IF(ISBLANK(D336),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C336" s="3"/>
@@ -4238,7 +4235,7 @@
     </row>
     <row r="337" spans="1:4" ht="14.25" customHeight="1">
       <c r="A337" t="str">
-        <f>IF(ISBLANK(D337),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C337" s="3"/>
@@ -4246,7 +4243,7 @@
     </row>
     <row r="338" spans="1:4" ht="14.25" customHeight="1">
       <c r="A338" t="str">
-        <f>IF(ISBLANK(D338),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C338" s="3"/>
@@ -4254,7 +4251,7 @@
     </row>
     <row r="339" spans="1:4" ht="14.25" customHeight="1">
       <c r="A339" t="str">
-        <f>IF(ISBLANK(D339),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C339" s="3"/>
@@ -4262,7 +4259,7 @@
     </row>
     <row r="340" spans="1:4" ht="14.25" customHeight="1">
       <c r="A340" t="str">
-        <f>IF(ISBLANK(D340),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C340" s="3"/>
@@ -4270,7 +4267,7 @@
     </row>
     <row r="341" spans="1:4" ht="14.25" customHeight="1">
       <c r="A341" t="str">
-        <f>IF(ISBLANK(D341),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C341" s="3"/>
@@ -4278,7 +4275,7 @@
     </row>
     <row r="342" spans="1:4" ht="14.25" customHeight="1">
       <c r="A342" t="str">
-        <f>IF(ISBLANK(D342),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C342" s="3"/>
@@ -4286,7 +4283,7 @@
     </row>
     <row r="343" spans="1:4" ht="14.25" customHeight="1">
       <c r="A343" t="str">
-        <f>IF(ISBLANK(D343),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C343" s="3"/>
@@ -4294,7 +4291,7 @@
     </row>
     <row r="344" spans="1:4" ht="14.25" customHeight="1">
       <c r="A344" t="str">
-        <f>IF(ISBLANK(D344),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C344" s="3"/>
@@ -4302,7 +4299,7 @@
     </row>
     <row r="345" spans="1:4" ht="14.25" customHeight="1">
       <c r="A345" t="str">
-        <f>IF(ISBLANK(D345),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C345" s="3"/>
@@ -4310,7 +4307,7 @@
     </row>
     <row r="346" spans="1:4" ht="14.25" customHeight="1">
       <c r="A346" t="str">
-        <f>IF(ISBLANK(D346),"",ROW()-4)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C346" s="3"/>
@@ -4318,7 +4315,7 @@
     </row>
     <row r="347" spans="1:4" ht="14.25" customHeight="1">
       <c r="A347" t="str">
-        <f>IF(ISBLANK(D347),"",ROW()-4)</f>
+        <f t="shared" ref="A347:A360" si="5">IF(ISBLANK(D347),"",ROW()-4)</f>
         <v/>
       </c>
       <c r="C347" s="3"/>
@@ -4326,7 +4323,7 @@
     </row>
     <row r="348" spans="1:4" ht="14.25" customHeight="1">
       <c r="A348" t="str">
-        <f>IF(ISBLANK(D348),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C348" s="3"/>
@@ -4334,7 +4331,7 @@
     </row>
     <row r="349" spans="1:4" ht="14.25" customHeight="1">
       <c r="A349" t="str">
-        <f>IF(ISBLANK(D349),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C349" s="3"/>
@@ -4342,7 +4339,7 @@
     </row>
     <row r="350" spans="1:4" ht="14.25" customHeight="1">
       <c r="A350" t="str">
-        <f>IF(ISBLANK(D350),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C350" s="3"/>
@@ -4350,7 +4347,7 @@
     </row>
     <row r="351" spans="1:4" ht="14.25" customHeight="1">
       <c r="A351" t="str">
-        <f>IF(ISBLANK(D351),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C351" s="3"/>
@@ -4358,7 +4355,7 @@
     </row>
     <row r="352" spans="1:4" ht="14.25" customHeight="1">
       <c r="A352" t="str">
-        <f>IF(ISBLANK(D352),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C352" s="3"/>
@@ -4366,7 +4363,7 @@
     </row>
     <row r="353" spans="1:4" ht="14.25" customHeight="1">
       <c r="A353" t="str">
-        <f>IF(ISBLANK(D353),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C353" s="3"/>
@@ -4374,7 +4371,7 @@
     </row>
     <row r="354" spans="1:4" ht="14.25" customHeight="1">
       <c r="A354" t="str">
-        <f>IF(ISBLANK(D354),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C354" s="3"/>
@@ -4382,7 +4379,7 @@
     </row>
     <row r="355" spans="1:4" ht="14.25" customHeight="1">
       <c r="A355" t="str">
-        <f>IF(ISBLANK(D355),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C355" s="3"/>
@@ -4390,7 +4387,7 @@
     </row>
     <row r="356" spans="1:4" ht="14.25" customHeight="1">
       <c r="A356" t="str">
-        <f>IF(ISBLANK(D356),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C356" s="3"/>
@@ -4398,7 +4395,7 @@
     </row>
     <row r="357" spans="1:4" ht="14.25" customHeight="1">
       <c r="A357" t="str">
-        <f>IF(ISBLANK(D357),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C357" s="3"/>
@@ -4406,7 +4403,7 @@
     </row>
     <row r="358" spans="1:4" ht="14.25" customHeight="1">
       <c r="A358" t="str">
-        <f>IF(ISBLANK(D358),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C358" s="3"/>
@@ -4414,7 +4411,7 @@
     </row>
     <row r="359" spans="1:4" ht="14.25" customHeight="1">
       <c r="A359" t="str">
-        <f>IF(ISBLANK(D359),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C359" s="3"/>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="360" spans="1:4" ht="14.25" customHeight="1">
       <c r="A360" t="str">
-        <f>IF(ISBLANK(D360),"",ROW()-4)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C360" s="3"/>

--- a/AR0134CS/Capstone_AR0134CS_BOM.xlsx
+++ b/AR0134CS/Capstone_AR0134CS_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/447eb0fe645bf98e/Documents/GitHub/Capstone-Sightline/AR0134CS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimba\OneDrive\Documents\GitHub\Capstone-Sightline\AR0134CS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{D9F634DA-45E3-429E-AAAF-3B5973463A8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0A36DA94-DA48-475D-889F-20583B13F472}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{D9F634DA-45E3-429E-AAAF-3B5973463A8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1EEA4395-16B8-4227-9FEF-DF87A872BFA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
